--- a/documents/优化文档/集材邦更新计划.xlsx
+++ b/documents/优化文档/集材邦更新计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <t>7月底</t>
   </si>
   <si>
-    <t>目前在写页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注册页面，输入手机号，点击“发送验证码”，应先验证该手机号是否已注册，若是，则提示已注册，不发送验证码；反之则发送验证码</t>
   </si>
   <si>
@@ -81,10 +77,6 @@
   </si>
   <si>
     <t>同上一条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该设置是根据之前需求，A要登录B的帐号替B上传商品之类的操作，所以设置的在A登录的情况下，A可以切换帐号登录。计划为个人信息编辑页和切换登录帐号增加按钮作为入口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -223,70 +215,6 @@
     <t>8月底</t>
   </si>
   <si>
-    <t>改为：会员中心昵称块右上角添加“切换账号”按钮，点击跳转至登录页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录状态下，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会员中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，点击昵称，会跳转至登录页，而不是个人信息编辑页，没有找到个人信息编辑页入</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本月优先更新影响交互体验的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,13 +224,78 @@
   </si>
   <si>
     <t>同上一条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同第3条，目前用户密码这一项待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要在已有版本上更改登录方式，需要推翻现有的用户数据库重建。需要时间较长，且有可能会引起其他BUG。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个订单系统都需要重做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否用小程序端代替厂家添加商品，或者为厂家单独做一个WEB后台？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期厂家自运营之后，这个功能还要撤销掉吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在全部分类中，多加一个“为你推荐”，放在首位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营后台“类目列表”，增加对多级类目的支持。现阶段小程序类目只能为1个层级。考虑到现阶段产品分类及后期产品管理的需要，需能对产品类目进行多级管理，至少能支撑管理3个层级的需求。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 登录状态下，“会员中心”，点击昵称，会跳转至登录页，而不是个人信息编辑页，没有找到个人信息编辑页入</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该设置是根据之前需求，A要登录B的帐号替B上传商品之类的操作，所以设置的在A登录的情况下，A可以切换帐号登录。计划为个人信息编辑页和切换登录帐号增加按钮作为入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为：会员中心昵称块右上角添加“切换账号”按钮，点击跳转至登录页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -315,7 +308,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -331,98 +324,25 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>店铺信息编辑页，当店铺头像未上传时，会报</t>
+      <t>店铺信息编辑页，当店铺头像未上传时，会报500错误。未对错误信息做针对性提示。应添加对用户未上传产品的提示：“请上传店铺照片”。店铺信息编辑页，保存后，弹出提示“所修改信息已提交审核，请耐心等待”</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错误。未对错误信息做针对性提示。应添加对用户未上传产品的提示：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请上传店铺照片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。店铺信息编辑页，保存后，弹出提示“所修改信息已提交审核，请耐心等待”</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同第3条，目前用户密码这一项待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要在已有版本上更改登录方式，需要推翻现有的用户数据库重建。需要时间较长，且有可能会引起其他BUG。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整个订单系统都需要重做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能否用小程序端代替厂家添加商品，或者为厂家单独做一个WEB后台？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前在写页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -431,40 +351,12 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后期处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后期厂家自运营之后，这个功能还要撤销掉吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以在全部分类中，多加一个“为你推荐”，放在首位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营后台“类目列表”，增加对多级类目的支持。现阶段小程序类目只能为1个层级。考虑到现阶段产品分类及后期产品管理的需要，需能对产品类目进行多级管理，至少能支撑管理3个层级的需求。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,12 +392,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -553,8 +439,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +472,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -654,16 +560,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -674,18 +583,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -694,25 +597,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -725,66 +613,100 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1085,8 +1007,8 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1094,7 +1016,7 @@
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="100.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="35" style="1" customWidth="1"/>
     <col min="6" max="8" width="9" style="1"/>
     <col min="9" max="9" width="74.125" style="1" customWidth="1"/>
@@ -1102,428 +1024,428 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="15.75">
-      <c r="A2" s="13">
+    <row r="2" spans="1:10" s="34" customFormat="1">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="32">
         <v>0.2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A3">
+    <row r="3" spans="1:10" s="43" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A3" s="43">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="43">
         <v>0.2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A4" s="6">
+    <row r="4" spans="1:10" s="39" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="37">
         <v>0.5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="21" customFormat="1" ht="27">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="29" customFormat="1" ht="27">
-      <c r="A5" s="21">
-        <v>4</v>
-      </c>
-      <c r="B5" s="26" t="s">
+      <c r="C5" s="19">
+        <v>2</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="21" customFormat="1" ht="27">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="39" customFormat="1" ht="67.5">
+      <c r="A7" s="35">
+        <v>6</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="39" customFormat="1">
+      <c r="A8" s="35">
+        <v>7</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="39" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A9" s="35">
+        <v>8</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="37">
+        <v>1</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="1:10" s="43" customFormat="1">
+      <c r="A10" s="43">
+        <v>9</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="43">
+        <v>1</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="55.5">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="D11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="43" customFormat="1">
+      <c r="A12" s="43">
+        <v>11</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="39" customFormat="1" ht="27">
+      <c r="A13" s="35">
+        <v>12</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="37">
+        <v>1</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="1:10" s="39" customFormat="1" ht="27">
+      <c r="A14" s="35">
+        <v>13</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="I14" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="21" customFormat="1">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" s="26" customFormat="1" ht="40.5">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="29" t="s">
+    </row>
+    <row r="17" spans="1:5" s="21" customFormat="1">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="28.5">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="26" customFormat="1" ht="45" customHeight="1">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="26" customFormat="1" ht="89.25" customHeight="1">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="29" customFormat="1" ht="27">
-      <c r="A6" s="30">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="67.5">
-      <c r="A7" s="6">
+    <row r="22" spans="1:5" s="26" customFormat="1" ht="40.5">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="26" customFormat="1" ht="27">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="39" customFormat="1" ht="27">
+      <c r="A24" s="35">
+        <v>23</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="37">
+        <v>2</v>
+      </c>
+      <c r="D24" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="29" customFormat="1">
-      <c r="A8" s="21">
-        <v>7</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="29" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A9" s="21">
-        <v>8</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="27">
-        <v>1</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:10" s="39" customFormat="1">
-      <c r="A10" s="39">
-        <v>9</v>
-      </c>
-      <c r="B10" s="39" t="s">
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="1:5" s="26" customFormat="1" ht="27">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="39">
-        <v>1</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="55.5">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="39" customFormat="1">
-      <c r="A12" s="39">
-        <v>11</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="39">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="27">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="31.5">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="I14" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="29" customFormat="1">
-      <c r="A15" s="21">
-        <v>14</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:10" s="34" customFormat="1" ht="40.5">
-      <c r="A16" s="22">
-        <v>15</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="32" t="s">
+      <c r="D25" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:5" s="26" customFormat="1" ht="27">
+      <c r="A26" s="27">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="29" customFormat="1">
-      <c r="A17" s="21">
-        <v>16</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="28.5">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="8">
-        <v>3</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="34" customFormat="1" ht="45" customHeight="1">
-      <c r="A20" s="22">
-        <v>19</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="34" customFormat="1" ht="89.25" customHeight="1">
-      <c r="A21" s="22">
-        <v>20</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="34" customFormat="1" ht="40.5">
-      <c r="A22" s="22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="34" customFormat="1" ht="27">
-      <c r="A23" s="22">
-        <v>22</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="29" customFormat="1" ht="27">
-      <c r="A24" s="21">
-        <v>23</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="27">
-        <v>2</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="1:5" s="34" customFormat="1" ht="27">
-      <c r="A25" s="22">
-        <v>24</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="1:5" s="34" customFormat="1" ht="27">
-      <c r="A26" s="35">
-        <v>25</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
